--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820" tabRatio="706"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="706"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,60 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>千千</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千千:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千千:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+666666666666666</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38,8 +92,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
+  <fonts count="26">
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -195,13 +267,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -516,152 +605,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,6 +758,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,10 +1099,10 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
@@ -1032,16 +1133,16 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="2">
@@ -1057,7 +1158,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="2">
@@ -1070,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1406,6 +1507,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1418,7 +1520,7 @@
       <selection activeCell="A1" sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
@@ -1567,7 +1669,7 @@
       <selection activeCell="A1" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -1664,7 +1766,7 @@
       <selection activeCell="A1" sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
@@ -1802,7 +1904,7 @@
       <selection activeCell="A1" sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
@@ -1929,7 +2031,7 @@
       <selection activeCell="A1" sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
@@ -2089,7 +2191,7 @@
       <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
